--- a/slate_6/wipss_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/wipss_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001595856673835361</v>
+        <v>0.007909736904678378</v>
       </c>
       <c r="B2" t="n">
-        <v>2.626211687353712e-05</v>
+        <v>0.01203427227040422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005894943535747153</v>
+        <v>0.004804162237052668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001578007505541764</v>
+        <v>0.03921634316153221</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003081138066458062</v>
+        <v>0.004354836058097188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005269558391217637</v>
+        <v>0.103681309678789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.04103367370550876</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.006442706819090256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1053566368081038</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.02990296603987661</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.006396112024797646</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07160517904906925</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.01547589450909053</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.002993281172869942</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0384174984948159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.007234196794472189</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.363026826981322e-08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02992703573888645</v>
       </c>
     </row>
   </sheetData>
